--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40190.04085223144</v>
+        <v>7996565.962106348</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40190.04085223144</v>
+        <v>7996565.962106348</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39814.58133267356</v>
+        <v>3747097.85743439</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39814.58133267356</v>
+        <v>3747097.85743439</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419800288.28312</v>
+        <v>56627985.08898531</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13296.08238893191</v>
+        <v>1428505.960258768</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24800.44375498084</v>
+        <v>2561601.756584619</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36304.80512102976</v>
+        <v>3694697.552910474</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48306.70716754592</v>
+        <v>4826639.968344795</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60309.79460199011</v>
+        <v>5958668.015878274</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72312.12696056232</v>
+        <v>7090696.063411751</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84314.83685707054</v>
+        <v>8222724.110945225</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96317.54675357873</v>
+        <v>9354752.1584787</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108942.5082322691</v>
+        <v>10325365.63847279</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121734.841249584</v>
+        <v>11329366.01000408</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>134527.1742668989</v>
+        <v>12333366.38153537</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147319.5072842137</v>
+        <v>13337366.75306667</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160111.8403015285</v>
+        <v>14341367.12459798</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172904.1733188434</v>
+        <v>15345367.49612929</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185696.5063361583</v>
+        <v>16349367.86766059</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>239</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>780</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
